--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3g</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3g</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.064133000000001</v>
+        <v>13.58860066666667</v>
       </c>
       <c r="H2">
-        <v>21.192399</v>
+        <v>40.765802</v>
       </c>
       <c r="I2">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="J2">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N2">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O2">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P2">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q2">
-        <v>249.44261288873</v>
+        <v>954.3866711189066</v>
       </c>
       <c r="R2">
-        <v>2244.98351599857</v>
+        <v>8589.480040070161</v>
       </c>
       <c r="S2">
-        <v>0.4804530647277137</v>
+        <v>0.6363328792681002</v>
       </c>
       <c r="T2">
-        <v>0.4804530647277137</v>
+        <v>0.6363328792681002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.064133000000001</v>
+        <v>13.58860066666667</v>
       </c>
       <c r="H3">
-        <v>21.192399</v>
+        <v>40.765802</v>
       </c>
       <c r="I3">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="J3">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q3">
-        <v>46.27969249914601</v>
+        <v>89.02384204077467</v>
       </c>
       <c r="R3">
-        <v>416.517232492314</v>
+        <v>801.214578366972</v>
       </c>
       <c r="S3">
-        <v>0.08913962148796702</v>
+        <v>0.05935623311136629</v>
       </c>
       <c r="T3">
-        <v>0.08913962148796703</v>
+        <v>0.05935623311136628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.064133000000001</v>
+        <v>13.58860066666667</v>
       </c>
       <c r="H4">
-        <v>21.192399</v>
+        <v>40.765802</v>
       </c>
       <c r="I4">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="J4">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N4">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O4">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P4">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q4">
-        <v>30.027526626077</v>
+        <v>58.00898434342977</v>
       </c>
       <c r="R4">
-        <v>270.247739634693</v>
+        <v>522.080859090868</v>
       </c>
       <c r="S4">
-        <v>0.05783621742339249</v>
+        <v>0.03867722082434011</v>
       </c>
       <c r="T4">
-        <v>0.0578362174233925</v>
+        <v>0.03867722082434011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>7.064133000000001</v>
+        <v>13.58860066666667</v>
       </c>
       <c r="H5">
-        <v>21.192399</v>
+        <v>40.765802</v>
       </c>
       <c r="I5">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="J5">
-        <v>0.7764436516667944</v>
+        <v>0.9060457790710231</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N5">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q5">
-        <v>77.365784164695</v>
+        <v>257.4887769891873</v>
       </c>
       <c r="R5">
-        <v>696.292057482255</v>
+        <v>2317.398992902686</v>
       </c>
       <c r="S5">
-        <v>0.1490147480277213</v>
+        <v>0.1716794458672165</v>
       </c>
       <c r="T5">
-        <v>0.1490147480277213</v>
+        <v>0.1716794458672165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.176967</v>
       </c>
       <c r="I6">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066158</v>
       </c>
       <c r="J6">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N6">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O6">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P6">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q6">
-        <v>2.08296903409</v>
+        <v>4.14305466204</v>
       </c>
       <c r="R6">
-        <v>18.74672130681</v>
+        <v>37.28749195836</v>
       </c>
       <c r="S6">
-        <v>0.00401202041853163</v>
+        <v>0.002762362448933003</v>
       </c>
       <c r="T6">
-        <v>0.004012020418531631</v>
+        <v>0.002762362448933002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.176967</v>
       </c>
       <c r="I7">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066158</v>
       </c>
       <c r="J7">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q7">
         <v>0.3864582930180001</v>
@@ -883,10 +883,10 @@
         <v>3.478124637162</v>
       </c>
       <c r="S7">
-        <v>0.0007443598714737797</v>
+        <v>0.0002576692715384126</v>
       </c>
       <c r="T7">
-        <v>0.0007443598714737799</v>
+        <v>0.0002576692715384124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.176967</v>
       </c>
       <c r="I8">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066158</v>
       </c>
       <c r="J8">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N8">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O8">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P8">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q8">
-        <v>0.250744679941</v>
+        <v>0.251820776942</v>
       </c>
       <c r="R8">
-        <v>2.256702119469</v>
+        <v>2.266386992478</v>
       </c>
       <c r="S8">
-        <v>0.0004829609846797193</v>
+        <v>0.0001679003331670256</v>
       </c>
       <c r="T8">
-        <v>0.0004829609846797194</v>
+        <v>0.0001679003331670255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.176967</v>
       </c>
       <c r="I9">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066158</v>
       </c>
       <c r="J9">
-        <v>0.006483688029114477</v>
+        <v>0.003933203703066157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N9">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q9">
-        <v>0.646042513935</v>
+        <v>1.117775541309</v>
       </c>
       <c r="R9">
-        <v>5.814382625415</v>
+        <v>10.059979871781</v>
       </c>
       <c r="S9">
-        <v>0.001244346754429348</v>
+        <v>0.0007452716494277168</v>
       </c>
       <c r="T9">
-        <v>0.001244346754429348</v>
+        <v>0.0007452716494277165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.968480333333333</v>
+        <v>1.350108</v>
       </c>
       <c r="H10">
-        <v>5.905441</v>
+        <v>4.050324</v>
       </c>
       <c r="I10">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="J10">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N10">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O10">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P10">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q10">
-        <v>69.50929119918111</v>
+        <v>94.82397131087998</v>
       </c>
       <c r="R10">
-        <v>625.58362079263</v>
+        <v>853.41574179792</v>
       </c>
       <c r="S10">
-        <v>0.1338823050197712</v>
+        <v>0.06322344235711808</v>
       </c>
       <c r="T10">
-        <v>0.1338823050197712</v>
+        <v>0.06322344235711808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.968480333333333</v>
+        <v>1.350108</v>
       </c>
       <c r="H11">
-        <v>5.905441</v>
+        <v>4.050324</v>
       </c>
       <c r="I11">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="J11">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q11">
-        <v>12.89622725354733</v>
+        <v>8.845046247095999</v>
       </c>
       <c r="R11">
-        <v>116.066045281926</v>
+        <v>79.605416223864</v>
       </c>
       <c r="S11">
-        <v>0.0248395085171585</v>
+        <v>0.005897393494688552</v>
       </c>
       <c r="T11">
-        <v>0.0248395085171585</v>
+        <v>0.00589739349468855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.968480333333333</v>
+        <v>1.350108</v>
       </c>
       <c r="H12">
-        <v>5.905441</v>
+        <v>4.050324</v>
       </c>
       <c r="I12">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="J12">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N12">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O12">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P12">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q12">
-        <v>8.367423946020777</v>
+        <v>5.763536346023999</v>
       </c>
       <c r="R12">
-        <v>75.30681551418699</v>
+        <v>51.87182711421599</v>
       </c>
       <c r="S12">
-        <v>0.01611655054517501</v>
+        <v>0.003842811083616717</v>
       </c>
       <c r="T12">
-        <v>0.01611655054517501</v>
+        <v>0.003842811083616717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.968480333333333</v>
+        <v>1.350108</v>
       </c>
       <c r="H13">
-        <v>5.905441</v>
+        <v>4.050324</v>
       </c>
       <c r="I13">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="J13">
-        <v>0.2163625823929988</v>
+        <v>0.09002101722591065</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N13">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q13">
-        <v>21.55862928983833</v>
+        <v>25.583035829148</v>
       </c>
       <c r="R13">
-        <v>194.027663608545</v>
+        <v>230.247322462332</v>
       </c>
       <c r="S13">
-        <v>0.04152421831089412</v>
+        <v>0.01705737029048731</v>
       </c>
       <c r="T13">
-        <v>0.04152421831089413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.006460333333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.019381</v>
-      </c>
-      <c r="I14">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="J14">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>35.31114333333333</v>
-      </c>
-      <c r="N14">
-        <v>105.93343</v>
-      </c>
-      <c r="O14">
-        <v>0.6187867769880316</v>
-      </c>
-      <c r="P14">
-        <v>0.6187867769880318</v>
-      </c>
-      <c r="Q14">
-        <v>0.2281217563144444</v>
-      </c>
-      <c r="R14">
-        <v>2.05309580683</v>
-      </c>
-      <c r="S14">
-        <v>0.0004393868220151865</v>
-      </c>
-      <c r="T14">
-        <v>0.0004393868220151865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.006460333333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.019381</v>
-      </c>
-      <c r="I15">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="J15">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.551362</v>
-      </c>
-      <c r="N15">
-        <v>19.654086</v>
-      </c>
-      <c r="O15">
-        <v>0.1148050103785518</v>
-      </c>
-      <c r="P15">
-        <v>0.1148050103785518</v>
-      </c>
-      <c r="Q15">
-        <v>0.04232398230733333</v>
-      </c>
-      <c r="R15">
-        <v>0.380915840766</v>
-      </c>
-      <c r="S15">
-        <v>8.152050195252969E-05</v>
-      </c>
-      <c r="T15">
-        <v>8.15205019525297E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.006460333333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.019381</v>
-      </c>
-      <c r="I16">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="J16">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.250702333333333</v>
-      </c>
-      <c r="N16">
-        <v>12.752107</v>
-      </c>
-      <c r="O16">
-        <v>0.07448862167812857</v>
-      </c>
-      <c r="P16">
-        <v>0.07448862167812859</v>
-      </c>
-      <c r="Q16">
-        <v>0.0274609539741111</v>
-      </c>
-      <c r="R16">
-        <v>0.247148585767</v>
-      </c>
-      <c r="S16">
-        <v>5.289272488134872E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.289272488134873E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.006460333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.019381</v>
-      </c>
-      <c r="I17">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="J17">
-        <v>0.0007100779110922808</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.951915</v>
-      </c>
-      <c r="N17">
-        <v>32.855745</v>
-      </c>
-      <c r="O17">
-        <v>0.191919590955288</v>
-      </c>
-      <c r="P17">
-        <v>0.191919590955288</v>
-      </c>
-      <c r="Q17">
-        <v>0.07075302153833332</v>
-      </c>
-      <c r="R17">
-        <v>0.636777193845</v>
-      </c>
-      <c r="S17">
-        <v>0.0001362778622432159</v>
-      </c>
-      <c r="T17">
-        <v>0.0001362778622432159</v>
+        <v>0.0170573702904873</v>
       </c>
     </row>
   </sheetData>
